--- a/data-transfer/transfer/data/calphi/teacher.xlsx
+++ b/data-transfer/transfer/data/calphi/teacher.xlsx
@@ -24,41 +24,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>Coach's Name</t>
   </si>
   <si>
+    <t>first name</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
+    <t>Original Name</t>
+  </si>
+  <si>
+    <t>Marcus</t>
+  </si>
+  <si>
     <t xml:space="preserve">ng.marcus.k@gmail.com </t>
   </si>
   <si>
+    <t>Marcus Ng</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
     <t>nickkshn@aol.com</t>
   </si>
   <si>
+    <t>Nicholas Lam</t>
+  </si>
+  <si>
     <t>Supriya</t>
   </si>
   <si>
     <t>swimsupriya@gmail.com</t>
   </si>
   <si>
+    <t>Cierra</t>
+  </si>
+  <si>
     <t>cierrabessler@gmail.com</t>
   </si>
   <si>
+    <t>Cierra Bessler</t>
+  </si>
+  <si>
+    <t>Aditi</t>
+  </si>
+  <si>
     <t>aditidalii@gmail.com</t>
   </si>
   <si>
+    <t>Aditi Dali</t>
+  </si>
+  <si>
+    <t>Alexa</t>
+  </si>
+  <si>
     <t>fordalexa98@gmail.com</t>
   </si>
   <si>
+    <t>Alexa Ford</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
     <t>stephanayagabo@gmail.com</t>
   </si>
   <si>
+    <t>Stephanie Agabo</t>
+  </si>
+  <si>
     <t>Charles N.</t>
   </si>
   <si>
+    <t>Charles</t>
+  </si>
+  <si>
     <t>charlienam8@gmail.com</t>
   </si>
   <si>
@@ -74,55 +119,37 @@
     <t>leslieizabel98@gmail.com</t>
   </si>
   <si>
+    <t>Matthew</t>
+  </si>
+  <si>
     <t>matttomng2016@gmail.com</t>
   </si>
   <si>
-    <t>Marcus</t>
-  </si>
-  <si>
-    <t>Nicholas</t>
-  </si>
-  <si>
-    <t>Cierra</t>
-  </si>
-  <si>
-    <t>Aditi</t>
-  </si>
-  <si>
-    <t>Alexa</t>
-  </si>
-  <si>
-    <t>Stephanie</t>
-  </si>
-  <si>
-    <t>Matthew</t>
+    <t>Matthew Ng</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>manuel.perrone436@gmail.com</t>
+  </si>
+  <si>
+    <t>Emmy</t>
+  </si>
+  <si>
+    <t>emontufar1@gmail.com</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>ashleymarietolbertson@gmail.com</t>
   </si>
   <si>
     <t>Andrew H.</t>
   </si>
   <si>
-    <t>andrew@classforth.com</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>Ashley</t>
-  </si>
-  <si>
-    <t>ashley@classforth.com</t>
-  </si>
-  <si>
-    <t>Emmy</t>
-  </si>
-  <si>
-    <t>emmy@classforth.com</t>
-  </si>
-  <si>
-    <t>Manuel</t>
-  </si>
-  <si>
-    <t>manuel@classforth.com</t>
+    <t>h.andrew228@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -198,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -209,7 +236,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -491,167 +517,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="2" width="14" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B3" r:id="rId5"/>
-    <hyperlink ref="B5" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B9" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C9" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
